--- a/Taxlist tree and rule.xlsx
+++ b/Taxlist tree and rule.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="20736" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="48" windowWidth="20736" windowHeight="9552" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$E$491</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="1463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="1474">
   <si>
     <t>Nama Vendor</t>
   </si>
@@ -4433,15 +4435,48 @@
   <si>
     <t>Default class: PPh Pasal 23 0.02 Jasa instalasi pemasangan mesin peralatan</t>
   </si>
+  <si>
+    <t>Rule 1:</t>
+  </si>
+  <si>
+    <t>Rule 2:</t>
+  </si>
+  <si>
+    <t>Rule 3:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -&gt;  class PPh Pasal 23 0.15 Royalti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -&gt;  class PPh Pasal 4 0.03 Jasa Pelaksana Konstruksi (Menengah &amp; Besar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -&gt;  class PPh Pasal 23 0.02 Jasa perantara dan atau keagenan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -&gt;  class PPh Pasal 4 0.04 Jasa Perencanaan Konstruksi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -&gt;  class PPh Pasal 23 0.02 Sewa dan penghasilan lain sehubungan dengan penggunaan harta</t>
+  </si>
+  <si>
+    <t>Misclassified transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        core = Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        core = No</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4472,6 +4507,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4559,7 +4607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4614,27 +4662,46 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4939,7 +5006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -15264,20 +15331,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E491"/>
+  <dimension ref="A1:E503"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C509" sqref="C509"/>
+    <sheetView topLeftCell="A253" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E286" sqref="E286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="150.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="74.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -15297,7 +15363,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>377</v>
       </c>
@@ -15314,14 +15380,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="25"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
@@ -15330,7 +15396,7 @@
       <c r="D4" s="26"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
@@ -15339,7 +15405,7 @@
       <c r="D5" s="26"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14" t="s">
@@ -15348,14 +15414,14 @@
       <c r="D6" s="26"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="25"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
@@ -15364,7 +15430,7 @@
       <c r="D8" s="26"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
@@ -15373,7 +15439,7 @@
       <c r="D9" s="26"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14" t="s">
@@ -15382,7 +15448,7 @@
       <c r="D10" s="26"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
@@ -15391,14 +15457,14 @@
       <c r="D11" s="26"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="25"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
@@ -15407,7 +15473,7 @@
       <c r="D13" s="26"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14" t="s">
@@ -15416,7 +15482,7 @@
       <c r="D14" s="26"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14" t="s">
@@ -15425,14 +15491,14 @@
       <c r="D15" s="26"/>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="26"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
@@ -15492,14 +15558,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="25"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14" t="s">
@@ -15508,7 +15574,7 @@
       <c r="D22" s="26"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
@@ -15517,7 +15583,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
@@ -15526,14 +15592,14 @@
       <c r="D24" s="26"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="25"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14" t="s">
@@ -15542,7 +15608,7 @@
       <c r="D26" s="26"/>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
@@ -15551,7 +15617,7 @@
       <c r="D27" s="26"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
@@ -15560,14 +15626,14 @@
       <c r="D28" s="26"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="13"/>
       <c r="D29" s="25"/>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15" t="s">
@@ -15576,7 +15642,7 @@
       <c r="D30" s="27"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>84</v>
       </c>
@@ -15593,14 +15659,14 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="13"/>
       <c r="D32" s="25"/>
       <c r="E32" s="13"/>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="14" t="s">
@@ -15609,7 +15675,7 @@
       <c r="D33" s="26"/>
       <c r="E33" s="14"/>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="14" t="s">
@@ -15618,7 +15684,7 @@
       <c r="D34" s="26"/>
       <c r="E34" s="14"/>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="14" t="s">
@@ -15627,14 +15693,14 @@
       <c r="D35" s="26"/>
       <c r="E35" s="14"/>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="13"/>
       <c r="D36" s="25"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="14" t="s">
@@ -15643,7 +15709,7 @@
       <c r="D37" s="26"/>
       <c r="E37" s="14"/>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="14" t="s">
@@ -15652,7 +15718,7 @@
       <c r="D38" s="26"/>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="14" t="s">
@@ -15661,14 +15727,14 @@
       <c r="D39" s="26"/>
       <c r="E39" s="14"/>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="13"/>
       <c r="D40" s="25"/>
       <c r="E40" s="13"/>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="14" t="s">
@@ -15677,7 +15743,7 @@
       <c r="D41" s="26"/>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="14" t="s">
@@ -15686,7 +15752,7 @@
       <c r="D42" s="26"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="14" t="s">
@@ -15695,14 +15761,14 @@
       <c r="D43" s="26"/>
       <c r="E43" s="14"/>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="13"/>
       <c r="D44" s="25"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="14" t="s">
@@ -15711,7 +15777,7 @@
       <c r="D45" s="26"/>
       <c r="E45" s="14"/>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="14" t="s">
@@ -15720,7 +15786,7 @@
       <c r="D46" s="26"/>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="14" t="s">
@@ -15729,14 +15795,14 @@
       <c r="D47" s="26"/>
       <c r="E47" s="14"/>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="13"/>
       <c r="D48" s="25"/>
       <c r="E48" s="13"/>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="14" t="s">
@@ -15745,7 +15811,7 @@
       <c r="D49" s="26"/>
       <c r="E49" s="14"/>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="14" t="s">
@@ -15754,7 +15820,7 @@
       <c r="D50" s="26"/>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="14" t="s">
@@ -15763,14 +15829,14 @@
       <c r="D51" s="26"/>
       <c r="E51" s="14"/>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="13"/>
       <c r="D52" s="25"/>
       <c r="E52" s="13"/>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="14" t="s">
@@ -15779,7 +15845,7 @@
       <c r="D53" s="26"/>
       <c r="E53" s="14"/>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="14" t="s">
@@ -15788,7 +15854,7 @@
       <c r="D54" s="26"/>
       <c r="E54" s="14"/>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="14" t="s">
@@ -15797,14 +15863,14 @@
       <c r="D55" s="26"/>
       <c r="E55" s="14"/>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="13"/>
       <c r="D56" s="25"/>
       <c r="E56" s="13"/>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="14" t="s">
@@ -15813,7 +15879,7 @@
       <c r="D57" s="26"/>
       <c r="E57" s="14"/>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="14" t="s">
@@ -15822,7 +15888,7 @@
       <c r="D58" s="26"/>
       <c r="E58" s="14"/>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="14" t="s">
@@ -15831,14 +15897,14 @@
       <c r="D59" s="26"/>
       <c r="E59" s="14"/>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="13"/>
       <c r="D60" s="25"/>
       <c r="E60" s="13"/>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="14" t="s">
@@ -15847,7 +15913,7 @@
       <c r="D61" s="26"/>
       <c r="E61" s="14"/>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="14" t="s">
@@ -15856,7 +15922,7 @@
       <c r="D62" s="26"/>
       <c r="E62" s="14"/>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="14" t="s">
@@ -15865,14 +15931,14 @@
       <c r="D63" s="26"/>
       <c r="E63" s="14"/>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="13"/>
       <c r="D64" s="25"/>
       <c r="E64" s="13"/>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="14" t="s">
@@ -15881,7 +15947,7 @@
       <c r="D65" s="26"/>
       <c r="E65" s="14"/>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="14" t="s">
@@ -15890,7 +15956,7 @@
       <c r="D66" s="26"/>
       <c r="E66" s="14"/>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="14" t="s">
@@ -15899,14 +15965,14 @@
       <c r="D67" s="26"/>
       <c r="E67" s="14"/>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="13"/>
       <c r="D68" s="25"/>
       <c r="E68" s="13"/>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="14" t="s">
@@ -15915,7 +15981,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="14"/>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="14" t="s">
@@ -15924,7 +15990,7 @@
       <c r="D70" s="26"/>
       <c r="E70" s="14"/>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="14" t="s">
@@ -15933,14 +15999,14 @@
       <c r="D71" s="26"/>
       <c r="E71" s="14"/>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="13"/>
       <c r="D72" s="25"/>
       <c r="E72" s="13"/>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="14" t="s">
@@ -15949,7 +16015,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="14"/>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="14" t="s">
@@ -15958,7 +16024,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="14"/>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="14" t="s">
@@ -15967,14 +16033,14 @@
       <c r="D75" s="26"/>
       <c r="E75" s="14"/>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="13"/>
       <c r="D76" s="25"/>
       <c r="E76" s="13"/>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="14" t="s">
@@ -15983,7 +16049,7 @@
       <c r="D77" s="26"/>
       <c r="E77" s="14"/>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="14" t="s">
@@ -15992,7 +16058,7 @@
       <c r="D78" s="26"/>
       <c r="E78" s="14"/>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="14" t="s">
@@ -16001,14 +16067,14 @@
       <c r="D79" s="26"/>
       <c r="E79" s="14"/>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="13"/>
       <c r="D80" s="25"/>
       <c r="E80" s="13"/>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="14" t="s">
@@ -16017,7 +16083,7 @@
       <c r="D81" s="26"/>
       <c r="E81" s="14"/>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="14" t="s">
@@ -16026,7 +16092,7 @@
       <c r="D82" s="26"/>
       <c r="E82" s="14"/>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="14" t="s">
@@ -16035,14 +16101,14 @@
       <c r="D83" s="26"/>
       <c r="E83" s="14"/>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="13"/>
       <c r="D84" s="25"/>
       <c r="E84" s="13"/>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="14" t="s">
@@ -16051,7 +16117,7 @@
       <c r="D85" s="26"/>
       <c r="E85" s="14"/>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="14" t="s">
@@ -16060,7 +16126,7 @@
       <c r="D86" s="26"/>
       <c r="E86" s="14"/>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="14" t="s">
@@ -16069,14 +16135,14 @@
       <c r="D87" s="26"/>
       <c r="E87" s="14"/>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="13"/>
       <c r="D88" s="25"/>
       <c r="E88" s="13"/>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="14" t="s">
@@ -16085,7 +16151,7 @@
       <c r="D89" s="26"/>
       <c r="E89" s="14"/>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="14" t="s">
@@ -16094,7 +16160,7 @@
       <c r="D90" s="26"/>
       <c r="E90" s="14"/>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="14" t="s">
@@ -16103,14 +16169,14 @@
       <c r="D91" s="26"/>
       <c r="E91" s="14"/>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="13"/>
       <c r="D92" s="25"/>
       <c r="E92" s="13"/>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="14" t="s">
@@ -16119,7 +16185,7 @@
       <c r="D93" s="26"/>
       <c r="E93" s="14"/>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="14" t="s">
@@ -16128,7 +16194,7 @@
       <c r="D94" s="26"/>
       <c r="E94" s="14"/>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="14" t="s">
@@ -16137,14 +16203,14 @@
       <c r="D95" s="26"/>
       <c r="E95" s="14"/>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="13"/>
       <c r="D96" s="25"/>
       <c r="E96" s="13"/>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="14" t="s">
@@ -16153,7 +16219,7 @@
       <c r="D97" s="26"/>
       <c r="E97" s="14"/>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="14" t="s">
@@ -16162,7 +16228,7 @@
       <c r="D98" s="26"/>
       <c r="E98" s="14"/>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="14" t="s">
@@ -16171,14 +16237,14 @@
       <c r="D99" s="26"/>
       <c r="E99" s="14"/>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="13"/>
       <c r="D100" s="25"/>
       <c r="E100" s="13"/>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="14" t="s">
@@ -16187,7 +16253,7 @@
       <c r="D101" s="26"/>
       <c r="E101" s="14"/>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="14" t="s">
@@ -16196,7 +16262,7 @@
       <c r="D102" s="26"/>
       <c r="E102" s="14"/>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="14" t="s">
@@ -16205,14 +16271,14 @@
       <c r="D103" s="26"/>
       <c r="E103" s="14"/>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="13"/>
       <c r="D104" s="25"/>
       <c r="E104" s="13"/>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="14" t="s">
@@ -16221,7 +16287,7 @@
       <c r="D105" s="26"/>
       <c r="E105" s="14"/>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="14" t="s">
@@ -16230,7 +16296,7 @@
       <c r="D106" s="26"/>
       <c r="E106" s="14"/>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="14" t="s">
@@ -16239,14 +16305,14 @@
       <c r="D107" s="26"/>
       <c r="E107" s="14"/>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="13"/>
       <c r="D108" s="25"/>
       <c r="E108" s="13"/>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="14" t="s">
@@ -16255,7 +16321,7 @@
       <c r="D109" s="26"/>
       <c r="E109" s="14"/>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="14" t="s">
@@ -16264,7 +16330,7 @@
       <c r="D110" s="26"/>
       <c r="E110" s="14"/>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="14" t="s">
@@ -16273,14 +16339,14 @@
       <c r="D111" s="26"/>
       <c r="E111" s="14"/>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="13"/>
       <c r="D112" s="25"/>
       <c r="E112" s="13"/>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="14" t="s">
@@ -16289,7 +16355,7 @@
       <c r="D113" s="26"/>
       <c r="E113" s="14"/>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="14" t="s">
@@ -16298,7 +16364,7 @@
       <c r="D114" s="26"/>
       <c r="E114" s="14"/>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="14" t="s">
@@ -16307,14 +16373,14 @@
       <c r="D115" s="26"/>
       <c r="E115" s="14"/>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="13"/>
       <c r="D116" s="25"/>
       <c r="E116" s="13"/>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="14" t="s">
@@ -16323,7 +16389,7 @@
       <c r="D117" s="26"/>
       <c r="E117" s="14"/>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="14" t="s">
@@ -16332,7 +16398,7 @@
       <c r="D118" s="26"/>
       <c r="E118" s="14"/>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="14" t="s">
@@ -16341,14 +16407,14 @@
       <c r="D119" s="26"/>
       <c r="E119" s="14"/>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="13"/>
       <c r="D120" s="25"/>
       <c r="E120" s="13"/>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="14" t="s">
@@ -16357,7 +16423,7 @@
       <c r="D121" s="26"/>
       <c r="E121" s="14"/>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="14" t="s">
@@ -16366,7 +16432,7 @@
       <c r="D122" s="26"/>
       <c r="E122" s="14"/>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="14" t="s">
@@ -16375,14 +16441,14 @@
       <c r="D123" s="26"/>
       <c r="E123" s="14"/>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="13"/>
       <c r="D124" s="25"/>
       <c r="E124" s="13"/>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="14" t="s">
@@ -16391,7 +16457,7 @@
       <c r="D125" s="26"/>
       <c r="E125" s="14"/>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="14" t="s">
@@ -16400,7 +16466,7 @@
       <c r="D126" s="26"/>
       <c r="E126" s="14"/>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="14" t="s">
@@ -16409,14 +16475,14 @@
       <c r="D127" s="26"/>
       <c r="E127" s="14"/>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="13"/>
       <c r="D128" s="25"/>
       <c r="E128" s="13"/>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="14" t="s">
@@ -16425,7 +16491,7 @@
       <c r="D129" s="26"/>
       <c r="E129" s="14"/>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="14" t="s">
@@ -16434,7 +16500,7 @@
       <c r="D130" s="26"/>
       <c r="E130" s="14"/>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="14" t="s">
@@ -16443,14 +16509,14 @@
       <c r="D131" s="26"/>
       <c r="E131" s="14"/>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="13"/>
       <c r="D132" s="25"/>
       <c r="E132" s="13"/>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="14" t="s">
@@ -16459,7 +16525,7 @@
       <c r="D133" s="26"/>
       <c r="E133" s="14"/>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="14" t="s">
@@ -16468,7 +16534,7 @@
       <c r="D134" s="26"/>
       <c r="E134" s="14"/>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="14" t="s">
@@ -16477,14 +16543,14 @@
       <c r="D135" s="26"/>
       <c r="E135" s="14"/>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="13"/>
       <c r="D136" s="25"/>
       <c r="E136" s="13"/>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="14" t="s">
@@ -16493,7 +16559,7 @@
       <c r="D137" s="26"/>
       <c r="E137" s="14"/>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="14" t="s">
@@ -16502,7 +16568,7 @@
       <c r="D138" s="26"/>
       <c r="E138" s="14"/>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="14" t="s">
@@ -16511,14 +16577,14 @@
       <c r="D139" s="26"/>
       <c r="E139" s="14"/>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="13"/>
       <c r="D140" s="25"/>
       <c r="E140" s="13"/>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="14" t="s">
@@ -16527,7 +16593,7 @@
       <c r="D141" s="26"/>
       <c r="E141" s="14"/>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="14" t="s">
@@ -16536,7 +16602,7 @@
       <c r="D142" s="26"/>
       <c r="E142" s="14"/>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="14" t="s">
@@ -16545,14 +16611,14 @@
       <c r="D143" s="26"/>
       <c r="E143" s="14"/>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="13"/>
       <c r="D144" s="25"/>
       <c r="E144" s="13"/>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="14" t="s">
@@ -16561,7 +16627,7 @@
       <c r="D145" s="26"/>
       <c r="E145" s="14"/>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="14" t="s">
@@ -16570,7 +16636,7 @@
       <c r="D146" s="26"/>
       <c r="E146" s="14"/>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="14" t="s">
@@ -16579,14 +16645,14 @@
       <c r="D147" s="26"/>
       <c r="E147" s="14"/>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="13"/>
       <c r="D148" s="25"/>
       <c r="E148" s="13"/>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="14" t="s">
@@ -16595,7 +16661,7 @@
       <c r="D149" s="26"/>
       <c r="E149" s="14"/>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="14" t="s">
@@ -16604,7 +16670,7 @@
       <c r="D150" s="26"/>
       <c r="E150" s="14"/>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="14" t="s">
@@ -16613,14 +16679,14 @@
       <c r="D151" s="26"/>
       <c r="E151" s="14"/>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="13"/>
       <c r="D152" s="25"/>
       <c r="E152" s="13"/>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="14" t="s">
@@ -16629,7 +16695,7 @@
       <c r="D153" s="26"/>
       <c r="E153" s="14"/>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="14" t="s">
@@ -16638,7 +16704,7 @@
       <c r="D154" s="26"/>
       <c r="E154" s="14"/>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="14" t="s">
@@ -16647,14 +16713,14 @@
       <c r="D155" s="26"/>
       <c r="E155" s="14"/>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="13"/>
       <c r="D156" s="25"/>
       <c r="E156" s="13"/>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="14" t="s">
@@ -16663,7 +16729,7 @@
       <c r="D157" s="26"/>
       <c r="E157" s="14"/>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="14" t="s">
@@ -16672,7 +16738,7 @@
       <c r="D158" s="26"/>
       <c r="E158" s="14"/>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="14" t="s">
@@ -16681,14 +16747,14 @@
       <c r="D159" s="26"/>
       <c r="E159" s="14"/>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="13"/>
       <c r="D160" s="25"/>
       <c r="E160" s="13"/>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="14" t="s">
@@ -16697,7 +16763,7 @@
       <c r="D161" s="26"/>
       <c r="E161" s="14"/>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="14" t="s">
@@ -16706,7 +16772,7 @@
       <c r="D162" s="26"/>
       <c r="E162" s="14"/>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="14" t="s">
@@ -16715,14 +16781,14 @@
       <c r="D163" s="26"/>
       <c r="E163" s="14"/>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="13"/>
       <c r="D164" s="25"/>
       <c r="E164" s="13"/>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="14" t="s">
@@ -16731,7 +16797,7 @@
       <c r="D165" s="26"/>
       <c r="E165" s="14"/>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="14" t="s">
@@ -16740,7 +16806,7 @@
       <c r="D166" s="26"/>
       <c r="E166" s="14"/>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="14" t="s">
@@ -16749,14 +16815,14 @@
       <c r="D167" s="26"/>
       <c r="E167" s="14"/>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="13"/>
       <c r="D168" s="25"/>
       <c r="E168" s="13"/>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="14" t="s">
@@ -16765,7 +16831,7 @@
       <c r="D169" s="26"/>
       <c r="E169" s="14"/>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="14" t="s">
@@ -16774,7 +16840,7 @@
       <c r="D170" s="26"/>
       <c r="E170" s="14"/>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="14" t="s">
@@ -16783,14 +16849,14 @@
       <c r="D171" s="26"/>
       <c r="E171" s="14"/>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="13"/>
       <c r="D172" s="25"/>
       <c r="E172" s="13"/>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="14" t="s">
@@ -16799,7 +16865,7 @@
       <c r="D173" s="26"/>
       <c r="E173" s="14"/>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="14" t="s">
@@ -16808,7 +16874,7 @@
       <c r="D174" s="26"/>
       <c r="E174" s="14"/>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="14" t="s">
@@ -16817,14 +16883,14 @@
       <c r="D175" s="26"/>
       <c r="E175" s="14"/>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="13"/>
       <c r="D176" s="25"/>
       <c r="E176" s="13"/>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="14" t="s">
@@ -16833,7 +16899,7 @@
       <c r="D177" s="26"/>
       <c r="E177" s="14"/>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="14" t="s">
@@ -16842,7 +16908,7 @@
       <c r="D178" s="26"/>
       <c r="E178" s="14"/>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="14" t="s">
@@ -16851,14 +16917,14 @@
       <c r="D179" s="26"/>
       <c r="E179" s="14"/>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="13"/>
       <c r="D180" s="25"/>
       <c r="E180" s="13"/>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="14" t="s">
@@ -16867,7 +16933,7 @@
       <c r="D181" s="26"/>
       <c r="E181" s="14"/>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="14" t="s">
@@ -16876,7 +16942,7 @@
       <c r="D182" s="26"/>
       <c r="E182" s="14"/>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="14" t="s">
@@ -16885,14 +16951,14 @@
       <c r="D183" s="26"/>
       <c r="E183" s="14"/>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="13"/>
       <c r="D184" s="25"/>
       <c r="E184" s="13"/>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="14" t="s">
@@ -16901,7 +16967,7 @@
       <c r="D185" s="26"/>
       <c r="E185" s="14"/>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="14" t="s">
@@ -16910,7 +16976,7 @@
       <c r="D186" s="26"/>
       <c r="E186" s="14"/>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="14" t="s">
@@ -16919,14 +16985,14 @@
       <c r="D187" s="26"/>
       <c r="E187" s="14"/>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="13"/>
       <c r="D188" s="25"/>
       <c r="E188" s="13"/>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="14" t="s">
@@ -16935,7 +17001,7 @@
       <c r="D189" s="26"/>
       <c r="E189" s="14"/>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="14" t="s">
@@ -16944,7 +17010,7 @@
       <c r="D190" s="26"/>
       <c r="E190" s="14"/>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="14" t="s">
@@ -16953,14 +17019,14 @@
       <c r="D191" s="26"/>
       <c r="E191" s="14"/>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="13"/>
       <c r="D192" s="25"/>
       <c r="E192" s="13"/>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="14" t="s">
@@ -16969,7 +17035,7 @@
       <c r="D193" s="26"/>
       <c r="E193" s="14"/>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="14" t="s">
@@ -16978,7 +17044,7 @@
       <c r="D194" s="26"/>
       <c r="E194" s="14"/>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="14" t="s">
@@ -16987,14 +17053,14 @@
       <c r="D195" s="26"/>
       <c r="E195" s="14"/>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="13"/>
       <c r="D196" s="25"/>
       <c r="E196" s="13"/>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="14" t="s">
@@ -17003,7 +17069,7 @@
       <c r="D197" s="26"/>
       <c r="E197" s="14"/>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="14" t="s">
@@ -17012,7 +17078,7 @@
       <c r="D198" s="26"/>
       <c r="E198" s="14"/>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="14" t="s">
@@ -17021,14 +17087,14 @@
       <c r="D199" s="26"/>
       <c r="E199" s="14"/>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="13"/>
       <c r="D200" s="25"/>
       <c r="E200" s="13"/>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="14" t="s">
@@ -17037,7 +17103,7 @@
       <c r="D201" s="26"/>
       <c r="E201" s="14"/>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="14" t="s">
@@ -17046,7 +17112,7 @@
       <c r="D202" s="26"/>
       <c r="E202" s="14"/>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="14" t="s">
@@ -17055,14 +17121,14 @@
       <c r="D203" s="26"/>
       <c r="E203" s="14"/>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="13"/>
       <c r="D204" s="25"/>
       <c r="E204" s="13"/>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="14" t="s">
@@ -17071,7 +17137,7 @@
       <c r="D205" s="26"/>
       <c r="E205" s="14"/>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="14" t="s">
@@ -17080,7 +17146,7 @@
       <c r="D206" s="26"/>
       <c r="E206" s="14"/>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="14" t="s">
@@ -17089,14 +17155,14 @@
       <c r="D207" s="26"/>
       <c r="E207" s="14"/>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="13"/>
       <c r="D208" s="25"/>
       <c r="E208" s="13"/>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="14" t="s">
@@ -17105,7 +17171,7 @@
       <c r="D209" s="26"/>
       <c r="E209" s="14"/>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="14" t="s">
@@ -17114,7 +17180,7 @@
       <c r="D210" s="26"/>
       <c r="E210" s="14"/>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="14" t="s">
@@ -17123,14 +17189,14 @@
       <c r="D211" s="26"/>
       <c r="E211" s="14"/>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="13"/>
       <c r="D212" s="25"/>
       <c r="E212" s="13"/>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="14" t="s">
@@ -17139,7 +17205,7 @@
       <c r="D213" s="26"/>
       <c r="E213" s="14"/>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="14" t="s">
@@ -17148,7 +17214,7 @@
       <c r="D214" s="26"/>
       <c r="E214" s="14"/>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="14" t="s">
@@ -17157,14 +17223,14 @@
       <c r="D215" s="26"/>
       <c r="E215" s="14"/>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="13"/>
       <c r="D216" s="25"/>
       <c r="E216" s="13"/>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="15" t="s">
@@ -17190,14 +17256,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="13"/>
       <c r="B219" s="13"/>
       <c r="C219" s="13"/>
       <c r="D219" s="25"/>
       <c r="E219" s="13"/>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="14"/>
       <c r="B220" s="14"/>
       <c r="C220" s="14" t="s">
@@ -17206,7 +17272,7 @@
       <c r="D220" s="26"/>
       <c r="E220" s="14"/>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="14"/>
       <c r="B221" s="14"/>
       <c r="C221" s="14" t="s">
@@ -17215,7 +17281,7 @@
       <c r="D221" s="26"/>
       <c r="E221" s="14"/>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="C222" s="14" t="s">
@@ -17224,14 +17290,14 @@
       <c r="D222" s="26"/>
       <c r="E222" s="14"/>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="13"/>
       <c r="B223" s="13"/>
       <c r="C223" s="13"/>
       <c r="D223" s="25"/>
       <c r="E223" s="13"/>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="14"/>
       <c r="B224" s="14"/>
       <c r="C224" s="14" t="s">
@@ -17240,7 +17306,7 @@
       <c r="D224" s="26"/>
       <c r="E224" s="14"/>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="14"/>
       <c r="B225" s="14"/>
       <c r="C225" s="14" t="s">
@@ -17249,7 +17315,7 @@
       <c r="D225" s="26"/>
       <c r="E225" s="14"/>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="C226" s="14" t="s">
@@ -17258,14 +17324,14 @@
       <c r="D226" s="26"/>
       <c r="E226" s="14"/>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="13"/>
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
       <c r="D227" s="25"/>
       <c r="E227" s="13"/>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" s="14" t="s">
@@ -17274,7 +17340,7 @@
       <c r="D228" s="26"/>
       <c r="E228" s="14"/>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" s="14" t="s">
@@ -17283,7 +17349,7 @@
       <c r="D229" s="26"/>
       <c r="E229" s="14"/>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" s="14" t="s">
@@ -17292,7 +17358,7 @@
       <c r="D230" s="26"/>
       <c r="E230" s="14"/>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" s="14" t="s">
@@ -17301,14 +17367,14 @@
       <c r="D231" s="26"/>
       <c r="E231" s="14"/>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="13"/>
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
       <c r="D232" s="25"/>
       <c r="E232" s="13"/>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="15"/>
       <c r="B233" s="15"/>
       <c r="C233" s="15" t="s">
@@ -17334,7 +17400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
         <v>382</v>
       </c>
@@ -17351,14 +17417,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="13"/>
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
       <c r="D236" s="25"/>
       <c r="E236" s="13"/>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" s="14" t="s">
@@ -17367,7 +17433,7 @@
       <c r="D237" s="26"/>
       <c r="E237" s="14"/>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" s="14" t="s">
@@ -17376,7 +17442,7 @@
       <c r="D238" s="26"/>
       <c r="E238" s="14"/>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" s="14" t="s">
@@ -17385,14 +17451,14 @@
       <c r="D239" s="26"/>
       <c r="E239" s="14"/>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="13"/>
       <c r="B240" s="13"/>
       <c r="C240" s="13"/>
       <c r="D240" s="25"/>
       <c r="E240" s="13"/>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" s="14" t="s">
@@ -17401,7 +17467,7 @@
       <c r="D241" s="26"/>
       <c r="E241" s="14"/>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" s="14" t="s">
@@ -17410,7 +17476,7 @@
       <c r="D242" s="26"/>
       <c r="E242" s="14"/>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="14"/>
       <c r="B243" s="14"/>
       <c r="C243" s="14" t="s">
@@ -17419,14 +17485,14 @@
       <c r="D243" s="26"/>
       <c r="E243" s="14"/>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="13"/>
       <c r="B244" s="13"/>
       <c r="C244" s="13"/>
       <c r="D244" s="25"/>
       <c r="E244" s="13"/>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="14"/>
       <c r="B245" s="14"/>
       <c r="C245" s="14" t="s">
@@ -17435,7 +17501,7 @@
       <c r="D245" s="26"/>
       <c r="E245" s="14"/>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="14"/>
       <c r="B246" s="14"/>
       <c r="C246" s="14" t="s">
@@ -17444,7 +17510,7 @@
       <c r="D246" s="26"/>
       <c r="E246" s="14"/>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="14"/>
       <c r="B247" s="14"/>
       <c r="C247" s="14" t="s">
@@ -17453,14 +17519,14 @@
       <c r="D247" s="26"/>
       <c r="E247" s="14"/>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="13"/>
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
       <c r="D248" s="25"/>
       <c r="E248" s="13"/>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" s="14" t="s">
@@ -17469,7 +17535,7 @@
       <c r="D249" s="26"/>
       <c r="E249" s="14"/>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
       <c r="C250" s="14" t="s">
@@ -17478,7 +17544,7 @@
       <c r="D250" s="26"/>
       <c r="E250" s="14"/>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="14"/>
       <c r="B251" s="14"/>
       <c r="C251" s="14" t="s">
@@ -17487,14 +17553,14 @@
       <c r="D251" s="26"/>
       <c r="E251" s="14"/>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="13"/>
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
       <c r="D252" s="25"/>
       <c r="E252" s="13"/>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
       <c r="C253" s="14" t="s">
@@ -17503,7 +17569,7 @@
       <c r="D253" s="26"/>
       <c r="E253" s="14"/>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="14"/>
       <c r="B254" s="14"/>
       <c r="C254" s="14" t="s">
@@ -17512,7 +17578,7 @@
       <c r="D254" s="26"/>
       <c r="E254" s="14"/>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="14"/>
       <c r="B255" s="14"/>
       <c r="C255" s="14" t="s">
@@ -17521,7 +17587,7 @@
       <c r="D255" s="26"/>
       <c r="E255" s="14"/>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="14"/>
       <c r="B256" s="14"/>
       <c r="C256" s="14" t="s">
@@ -17530,7 +17596,7 @@
       <c r="D256" s="26"/>
       <c r="E256" s="14"/>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="14"/>
       <c r="B257" s="14"/>
       <c r="C257" s="14" t="s">
@@ -17539,7 +17605,7 @@
       <c r="D257" s="26"/>
       <c r="E257" s="14"/>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" s="14" t="s">
@@ -17548,7 +17614,7 @@
       <c r="D258" s="26"/>
       <c r="E258" s="14"/>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" s="14" t="s">
@@ -17557,7 +17623,7 @@
       <c r="D259" s="26"/>
       <c r="E259" s="14"/>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" s="14" t="s">
@@ -17566,7 +17632,7 @@
       <c r="D260" s="26"/>
       <c r="E260" s="14"/>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" s="14" t="s">
@@ -17575,7 +17641,7 @@
       <c r="D261" s="26"/>
       <c r="E261" s="14"/>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" s="14" t="s">
@@ -17584,7 +17650,7 @@
       <c r="D262" s="26"/>
       <c r="E262" s="14"/>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" s="14" t="s">
@@ -17593,14 +17659,14 @@
       <c r="D263" s="26"/>
       <c r="E263" s="14"/>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="13"/>
       <c r="B264" s="13"/>
       <c r="C264" s="13"/>
       <c r="D264" s="25"/>
       <c r="E264" s="13"/>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" s="14" t="s">
@@ -17609,7 +17675,7 @@
       <c r="D265" s="26"/>
       <c r="E265" s="14"/>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" s="14" t="s">
@@ -17618,7 +17684,7 @@
       <c r="D266" s="26"/>
       <c r="E266" s="14"/>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" s="14" t="s">
@@ -17627,14 +17693,14 @@
       <c r="D267" s="26"/>
       <c r="E267" s="14"/>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="13"/>
       <c r="B268" s="13"/>
       <c r="C268" s="13"/>
       <c r="D268" s="25"/>
       <c r="E268" s="13"/>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" s="14" t="s">
@@ -17643,7 +17709,7 @@
       <c r="D269" s="26"/>
       <c r="E269" s="14"/>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" s="14" t="s">
@@ -17652,7 +17718,7 @@
       <c r="D270" s="26"/>
       <c r="E270" s="14"/>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" s="14" t="s">
@@ -17661,14 +17727,14 @@
       <c r="D271" s="26"/>
       <c r="E271" s="14"/>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="13"/>
       <c r="B272" s="13"/>
       <c r="C272" s="13"/>
       <c r="D272" s="25"/>
       <c r="E272" s="13"/>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" s="14" t="s">
@@ -17677,7 +17743,7 @@
       <c r="D273" s="26"/>
       <c r="E273" s="14"/>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
       <c r="C274" s="14" t="s">
@@ -17686,7 +17752,7 @@
       <c r="D274" s="26"/>
       <c r="E274" s="14"/>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
       <c r="C275" s="14" t="s">
@@ -17695,14 +17761,14 @@
       <c r="D275" s="26"/>
       <c r="E275" s="14"/>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="13"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
       <c r="D276" s="25"/>
       <c r="E276" s="13"/>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="14"/>
       <c r="B277" s="14"/>
       <c r="C277" s="14" t="s">
@@ -17711,7 +17777,7 @@
       <c r="D277" s="26"/>
       <c r="E277" s="14"/>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
       <c r="C278" s="14" t="s">
@@ -17720,7 +17786,7 @@
       <c r="D278" s="26"/>
       <c r="E278" s="14"/>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="14"/>
       <c r="B279" s="14"/>
       <c r="C279" s="14" t="s">
@@ -17729,14 +17795,14 @@
       <c r="D279" s="26"/>
       <c r="E279" s="14"/>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="13"/>
       <c r="B280" s="13"/>
       <c r="C280" s="13"/>
       <c r="D280" s="25"/>
       <c r="E280" s="13"/>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" s="14" t="s">
@@ -17745,7 +17811,7 @@
       <c r="D281" s="26"/>
       <c r="E281" s="14"/>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" s="14" t="s">
@@ -17754,7 +17820,7 @@
       <c r="D282" s="26"/>
       <c r="E282" s="14"/>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" s="14" t="s">
@@ -17763,14 +17829,14 @@
       <c r="D283" s="26"/>
       <c r="E283" s="14"/>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="13"/>
       <c r="B284" s="13"/>
       <c r="C284" s="13"/>
       <c r="D284" s="25"/>
       <c r="E284" s="13"/>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="15"/>
       <c r="B285" s="15"/>
       <c r="C285" s="15" t="s">
@@ -17796,14 +17862,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="13"/>
       <c r="B287" s="13"/>
       <c r="C287" s="13"/>
       <c r="D287" s="25"/>
       <c r="E287" s="13"/>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
       <c r="C288" s="14" t="s">
@@ -17812,7 +17878,7 @@
       <c r="D288" s="26"/>
       <c r="E288" s="14"/>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="14"/>
       <c r="B289" s="14"/>
       <c r="C289" s="14" t="s">
@@ -17821,7 +17887,7 @@
       <c r="D289" s="26"/>
       <c r="E289" s="14"/>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" s="14" t="s">
@@ -17830,14 +17896,14 @@
       <c r="D290" s="26"/>
       <c r="E290" s="14"/>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="13"/>
       <c r="B291" s="13"/>
       <c r="C291" s="13"/>
       <c r="D291" s="25"/>
       <c r="E291" s="13"/>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
       <c r="C292" s="14" t="s">
@@ -17846,7 +17912,7 @@
       <c r="D292" s="26"/>
       <c r="E292" s="14"/>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="14"/>
       <c r="B293" s="14"/>
       <c r="C293" s="14" t="s">
@@ -17855,7 +17921,7 @@
       <c r="D293" s="26"/>
       <c r="E293" s="14"/>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" s="14" t="s">
@@ -17864,14 +17930,14 @@
       <c r="D294" s="26"/>
       <c r="E294" s="14"/>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="13"/>
       <c r="B295" s="13"/>
       <c r="C295" s="13"/>
       <c r="D295" s="25"/>
       <c r="E295" s="13"/>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="15"/>
       <c r="B296" s="15"/>
       <c r="C296" s="15" t="s">
@@ -17880,7 +17946,7 @@
       <c r="D296" s="27"/>
       <c r="E296" s="15"/>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="12" t="s">
         <v>238</v>
       </c>
@@ -17897,14 +17963,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="13"/>
       <c r="B298" s="13"/>
       <c r="C298" s="13"/>
       <c r="D298" s="25"/>
       <c r="E298" s="13"/>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="14"/>
       <c r="B299" s="14"/>
       <c r="C299" s="14" t="s">
@@ -17913,7 +17979,7 @@
       <c r="D299" s="26"/>
       <c r="E299" s="14"/>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="14"/>
       <c r="B300" s="14"/>
       <c r="C300" s="14" t="s">
@@ -17922,7 +17988,7 @@
       <c r="D300" s="26"/>
       <c r="E300" s="14"/>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="14"/>
       <c r="B301" s="14"/>
       <c r="C301" s="14" t="s">
@@ -17931,14 +17997,14 @@
       <c r="D301" s="26"/>
       <c r="E301" s="14"/>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="13"/>
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
       <c r="D302" s="25"/>
       <c r="E302" s="13"/>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
       <c r="C303" s="14" t="s">
@@ -17947,7 +18013,7 @@
       <c r="D303" s="26"/>
       <c r="E303" s="14"/>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="14"/>
       <c r="B304" s="14"/>
       <c r="C304" s="14" t="s">
@@ -17956,7 +18022,7 @@
       <c r="D304" s="26"/>
       <c r="E304" s="14"/>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="14"/>
       <c r="B305" s="14"/>
       <c r="C305" s="14" t="s">
@@ -17965,7 +18031,7 @@
       <c r="D305" s="26"/>
       <c r="E305" s="14"/>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="14"/>
       <c r="B306" s="14"/>
       <c r="C306" s="14" t="s">
@@ -17974,14 +18040,14 @@
       <c r="D306" s="26"/>
       <c r="E306" s="14"/>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="13"/>
       <c r="B307" s="13"/>
       <c r="C307" s="13"/>
       <c r="D307" s="25"/>
       <c r="E307" s="13"/>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="14"/>
       <c r="B308" s="14"/>
       <c r="C308" s="14" t="s">
@@ -17990,7 +18056,7 @@
       <c r="D308" s="26"/>
       <c r="E308" s="14"/>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="14"/>
       <c r="B309" s="14"/>
       <c r="C309" s="14" t="s">
@@ -17999,7 +18065,7 @@
       <c r="D309" s="26"/>
       <c r="E309" s="14"/>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
       <c r="C310" s="14" t="s">
@@ -18008,14 +18074,14 @@
       <c r="D310" s="26"/>
       <c r="E310" s="14"/>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="13"/>
       <c r="B311" s="13"/>
       <c r="C311" s="13"/>
       <c r="D311" s="25"/>
       <c r="E311" s="13"/>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="14"/>
       <c r="B312" s="14"/>
       <c r="C312" s="14" t="s">
@@ -18024,7 +18090,7 @@
       <c r="D312" s="26"/>
       <c r="E312" s="14"/>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="14"/>
       <c r="B313" s="14"/>
       <c r="C313" s="14" t="s">
@@ -18033,7 +18099,7 @@
       <c r="D313" s="26"/>
       <c r="E313" s="14"/>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="14"/>
       <c r="B314" s="14"/>
       <c r="C314" s="14" t="s">
@@ -18042,14 +18108,14 @@
       <c r="D314" s="26"/>
       <c r="E314" s="14"/>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="13"/>
       <c r="B315" s="13"/>
       <c r="C315" s="13"/>
       <c r="D315" s="25"/>
       <c r="E315" s="13"/>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="14"/>
       <c r="B316" s="14"/>
       <c r="C316" s="14" t="s">
@@ -18058,7 +18124,7 @@
       <c r="D316" s="26"/>
       <c r="E316" s="14"/>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
       <c r="C317" s="14" t="s">
@@ -18067,7 +18133,7 @@
       <c r="D317" s="26"/>
       <c r="E317" s="14"/>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="14"/>
       <c r="B318" s="14"/>
       <c r="C318" s="14" t="s">
@@ -18076,14 +18142,14 @@
       <c r="D318" s="26"/>
       <c r="E318" s="14"/>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="13"/>
       <c r="B319" s="13"/>
       <c r="C319" s="13"/>
       <c r="D319" s="25"/>
       <c r="E319" s="13"/>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="14"/>
       <c r="B320" s="14"/>
       <c r="C320" s="14" t="s">
@@ -18092,7 +18158,7 @@
       <c r="D320" s="26"/>
       <c r="E320" s="14"/>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="14"/>
       <c r="B321" s="14"/>
       <c r="C321" s="14" t="s">
@@ -18101,7 +18167,7 @@
       <c r="D321" s="26"/>
       <c r="E321" s="14"/>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="14"/>
       <c r="B322" s="14"/>
       <c r="C322" s="14" t="s">
@@ -18110,14 +18176,14 @@
       <c r="D322" s="26"/>
       <c r="E322" s="14"/>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="13"/>
       <c r="B323" s="13"/>
       <c r="C323" s="13"/>
       <c r="D323" s="25"/>
       <c r="E323" s="13"/>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="15"/>
       <c r="B324" s="15"/>
       <c r="C324" s="15" t="s">
@@ -18143,7 +18209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="12" t="s">
         <v>384</v>
       </c>
@@ -18160,14 +18226,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="13"/>
       <c r="B327" s="13"/>
       <c r="C327" s="13"/>
       <c r="D327" s="25"/>
       <c r="E327" s="13"/>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="14"/>
       <c r="B328" s="14"/>
       <c r="C328" s="14" t="s">
@@ -18176,7 +18242,7 @@
       <c r="D328" s="26"/>
       <c r="E328" s="14"/>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="14"/>
       <c r="B329" s="14"/>
       <c r="C329" s="14" t="s">
@@ -18185,7 +18251,7 @@
       <c r="D329" s="26"/>
       <c r="E329" s="14"/>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="14"/>
       <c r="B330" s="14"/>
       <c r="C330" s="14" t="s">
@@ -18194,14 +18260,14 @@
       <c r="D330" s="26"/>
       <c r="E330" s="14"/>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="13"/>
       <c r="B331" s="13"/>
       <c r="C331" s="13"/>
       <c r="D331" s="25"/>
       <c r="E331" s="13"/>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="14"/>
       <c r="B332" s="14"/>
       <c r="C332" s="14" t="s">
@@ -18210,7 +18276,7 @@
       <c r="D332" s="26"/>
       <c r="E332" s="14"/>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="14"/>
       <c r="B333" s="14"/>
       <c r="C333" s="14" t="s">
@@ -18219,7 +18285,7 @@
       <c r="D333" s="26"/>
       <c r="E333" s="14"/>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="14"/>
       <c r="B334" s="14"/>
       <c r="C334" s="14" t="s">
@@ -18228,14 +18294,14 @@
       <c r="D334" s="26"/>
       <c r="E334" s="14"/>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="13"/>
       <c r="B335" s="13"/>
       <c r="C335" s="13"/>
       <c r="D335" s="25"/>
       <c r="E335" s="13"/>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="15"/>
       <c r="B336" s="15"/>
       <c r="C336" s="15" t="s">
@@ -18295,7 +18361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="12" t="s">
         <v>6</v>
       </c>
@@ -18312,14 +18378,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="13"/>
       <c r="B341" s="13"/>
       <c r="C341" s="13"/>
       <c r="D341" s="25"/>
       <c r="E341" s="13"/>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="14"/>
       <c r="B342" s="14"/>
       <c r="C342" s="14" t="s">
@@ -18328,7 +18394,7 @@
       <c r="D342" s="26"/>
       <c r="E342" s="14"/>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="14"/>
       <c r="B343" s="14"/>
       <c r="C343" s="14" t="s">
@@ -18337,7 +18403,7 @@
       <c r="D343" s="26"/>
       <c r="E343" s="14"/>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="14"/>
       <c r="B344" s="14"/>
       <c r="C344" s="14" t="s">
@@ -18346,14 +18412,14 @@
       <c r="D344" s="26"/>
       <c r="E344" s="14"/>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="13"/>
       <c r="B345" s="13"/>
       <c r="C345" s="13"/>
       <c r="D345" s="25"/>
       <c r="E345" s="13"/>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="14"/>
       <c r="B346" s="14"/>
       <c r="C346" s="14" t="s">
@@ -18362,7 +18428,7 @@
       <c r="D346" s="26"/>
       <c r="E346" s="14"/>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="14"/>
       <c r="B347" s="14"/>
       <c r="C347" s="14" t="s">
@@ -18371,7 +18437,7 @@
       <c r="D347" s="26"/>
       <c r="E347" s="14"/>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="14"/>
       <c r="B348" s="14"/>
       <c r="C348" s="14" t="s">
@@ -18380,7 +18446,7 @@
       <c r="D348" s="26"/>
       <c r="E348" s="14"/>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="14"/>
       <c r="B349" s="14"/>
       <c r="C349" s="14" t="s">
@@ -18389,7 +18455,7 @@
       <c r="D349" s="26"/>
       <c r="E349" s="14"/>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="14"/>
       <c r="B350" s="14"/>
       <c r="C350" s="14" t="s">
@@ -18398,7 +18464,7 @@
       <c r="D350" s="26"/>
       <c r="E350" s="14"/>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="14"/>
       <c r="B351" s="14"/>
       <c r="C351" s="14" t="s">
@@ -18407,7 +18473,7 @@
       <c r="D351" s="26"/>
       <c r="E351" s="14"/>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="14"/>
       <c r="B352" s="14"/>
       <c r="C352" s="14" t="s">
@@ -18416,14 +18482,14 @@
       <c r="D352" s="26"/>
       <c r="E352" s="14"/>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="13"/>
       <c r="B353" s="13"/>
       <c r="C353" s="13"/>
       <c r="D353" s="25"/>
       <c r="E353" s="13"/>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="14"/>
       <c r="B354" s="14"/>
       <c r="C354" s="14" t="s">
@@ -18432,7 +18498,7 @@
       <c r="D354" s="26"/>
       <c r="E354" s="14"/>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="14"/>
       <c r="B355" s="14"/>
       <c r="C355" s="14" t="s">
@@ -18441,7 +18507,7 @@
       <c r="D355" s="26"/>
       <c r="E355" s="14"/>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="14"/>
       <c r="B356" s="14"/>
       <c r="C356" s="14" t="s">
@@ -18450,14 +18516,14 @@
       <c r="D356" s="26"/>
       <c r="E356" s="14"/>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="13"/>
       <c r="B357" s="13"/>
       <c r="C357" s="13"/>
       <c r="D357" s="25"/>
       <c r="E357" s="13"/>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="14"/>
       <c r="B358" s="14"/>
       <c r="C358" s="14" t="s">
@@ -18466,7 +18532,7 @@
       <c r="D358" s="26"/>
       <c r="E358" s="14"/>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
       <c r="C359" s="14" t="s">
@@ -18475,7 +18541,7 @@
       <c r="D359" s="26"/>
       <c r="E359" s="14"/>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
       <c r="C360" s="14" t="s">
@@ -18484,14 +18550,14 @@
       <c r="D360" s="26"/>
       <c r="E360" s="14"/>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="13"/>
       <c r="B361" s="13"/>
       <c r="C361" s="13"/>
       <c r="D361" s="25"/>
       <c r="E361" s="13"/>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="14"/>
       <c r="B362" s="14"/>
       <c r="C362" s="14" t="s">
@@ -18500,7 +18566,7 @@
       <c r="D362" s="26"/>
       <c r="E362" s="14"/>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="14"/>
       <c r="B363" s="14"/>
       <c r="C363" s="14" t="s">
@@ -18509,7 +18575,7 @@
       <c r="D363" s="26"/>
       <c r="E363" s="14"/>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="14"/>
       <c r="B364" s="14"/>
       <c r="C364" s="14" t="s">
@@ -18518,14 +18584,14 @@
       <c r="D364" s="26"/>
       <c r="E364" s="14"/>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="13"/>
       <c r="B365" s="13"/>
       <c r="C365" s="13"/>
       <c r="D365" s="25"/>
       <c r="E365" s="13"/>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="14"/>
       <c r="B366" s="14"/>
       <c r="C366" s="14" t="s">
@@ -18534,7 +18600,7 @@
       <c r="D366" s="26"/>
       <c r="E366" s="14"/>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="14"/>
       <c r="B367" s="14"/>
       <c r="C367" s="14" t="s">
@@ -18543,7 +18609,7 @@
       <c r="D367" s="26"/>
       <c r="E367" s="14"/>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="14"/>
       <c r="B368" s="14"/>
       <c r="C368" s="14" t="s">
@@ -18552,14 +18618,14 @@
       <c r="D368" s="26"/>
       <c r="E368" s="14"/>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="13"/>
       <c r="B369" s="13"/>
       <c r="C369" s="13"/>
       <c r="D369" s="25"/>
       <c r="E369" s="13"/>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="14"/>
       <c r="B370" s="14"/>
       <c r="C370" s="14" t="s">
@@ -18568,7 +18634,7 @@
       <c r="D370" s="26"/>
       <c r="E370" s="14"/>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="14"/>
       <c r="B371" s="14"/>
       <c r="C371" s="14" t="s">
@@ -18577,7 +18643,7 @@
       <c r="D371" s="26"/>
       <c r="E371" s="14"/>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="14"/>
       <c r="B372" s="14"/>
       <c r="C372" s="14" t="s">
@@ -18586,14 +18652,14 @@
       <c r="D372" s="26"/>
       <c r="E372" s="14"/>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="13"/>
       <c r="B373" s="13"/>
       <c r="C373" s="13"/>
       <c r="D373" s="25"/>
       <c r="E373" s="13"/>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="14"/>
       <c r="B374" s="14"/>
       <c r="C374" s="14" t="s">
@@ -18602,7 +18668,7 @@
       <c r="D374" s="26"/>
       <c r="E374" s="14"/>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="14"/>
       <c r="B375" s="14"/>
       <c r="C375" s="14" t="s">
@@ -18611,7 +18677,7 @@
       <c r="D375" s="26"/>
       <c r="E375" s="14"/>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="14"/>
       <c r="B376" s="14"/>
       <c r="C376" s="14" t="s">
@@ -18620,14 +18686,14 @@
       <c r="D376" s="26"/>
       <c r="E376" s="14"/>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="13"/>
       <c r="B377" s="13"/>
       <c r="C377" s="13"/>
       <c r="D377" s="25"/>
       <c r="E377" s="13"/>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="14"/>
       <c r="B378" s="14"/>
       <c r="C378" s="14" t="s">
@@ -18636,7 +18702,7 @@
       <c r="D378" s="26"/>
       <c r="E378" s="14"/>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="14"/>
       <c r="B379" s="14"/>
       <c r="C379" s="14" t="s">
@@ -18645,7 +18711,7 @@
       <c r="D379" s="26"/>
       <c r="E379" s="14"/>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="14"/>
       <c r="B380" s="14"/>
       <c r="C380" s="14" t="s">
@@ -18654,7 +18720,7 @@
       <c r="D380" s="26"/>
       <c r="E380" s="14"/>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="14"/>
       <c r="B381" s="14"/>
       <c r="C381" s="14" t="s">
@@ -18663,7 +18729,7 @@
       <c r="D381" s="26"/>
       <c r="E381" s="14"/>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="14"/>
       <c r="B382" s="14"/>
       <c r="C382" s="14" t="s">
@@ -18672,7 +18738,7 @@
       <c r="D382" s="26"/>
       <c r="E382" s="14"/>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="14"/>
       <c r="B383" s="14"/>
       <c r="C383" s="14" t="s">
@@ -18681,7 +18747,7 @@
       <c r="D383" s="26"/>
       <c r="E383" s="14"/>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="14"/>
       <c r="B384" s="14"/>
       <c r="C384" s="14" t="s">
@@ -18690,14 +18756,14 @@
       <c r="D384" s="26"/>
       <c r="E384" s="14"/>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="13"/>
       <c r="B385" s="13"/>
       <c r="C385" s="13"/>
       <c r="D385" s="25"/>
       <c r="E385" s="13"/>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="14"/>
       <c r="B386" s="14"/>
       <c r="C386" s="14" t="s">
@@ -18706,7 +18772,7 @@
       <c r="D386" s="26"/>
       <c r="E386" s="14"/>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="14"/>
       <c r="B387" s="14"/>
       <c r="C387" s="14" t="s">
@@ -18715,7 +18781,7 @@
       <c r="D387" s="26"/>
       <c r="E387" s="14"/>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="14"/>
       <c r="B388" s="14"/>
       <c r="C388" s="14" t="s">
@@ -18724,14 +18790,14 @@
       <c r="D388" s="26"/>
       <c r="E388" s="14"/>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="13"/>
       <c r="B389" s="13"/>
       <c r="C389" s="13"/>
       <c r="D389" s="25"/>
       <c r="E389" s="13"/>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="14"/>
       <c r="B390" s="14"/>
       <c r="C390" s="14" t="s">
@@ -18740,7 +18806,7 @@
       <c r="D390" s="26"/>
       <c r="E390" s="14"/>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="14"/>
       <c r="B391" s="14"/>
       <c r="C391" s="14" t="s">
@@ -18749,7 +18815,7 @@
       <c r="D391" s="26"/>
       <c r="E391" s="14"/>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="14"/>
       <c r="B392" s="14"/>
       <c r="C392" s="14" t="s">
@@ -18758,7 +18824,7 @@
       <c r="D392" s="26"/>
       <c r="E392" s="14"/>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="14"/>
       <c r="B393" s="14"/>
       <c r="C393" s="14" t="s">
@@ -18767,7 +18833,7 @@
       <c r="D393" s="26"/>
       <c r="E393" s="14"/>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="14"/>
       <c r="B394" s="14"/>
       <c r="C394" s="14" t="s">
@@ -18776,14 +18842,14 @@
       <c r="D394" s="26"/>
       <c r="E394" s="14"/>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="13"/>
       <c r="B395" s="13"/>
       <c r="C395" s="13"/>
       <c r="D395" s="25"/>
       <c r="E395" s="13"/>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="14"/>
       <c r="B396" s="14"/>
       <c r="C396" s="14" t="s">
@@ -18792,7 +18858,7 @@
       <c r="D396" s="26"/>
       <c r="E396" s="14"/>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="14"/>
       <c r="B397" s="14"/>
       <c r="C397" s="14" t="s">
@@ -18801,7 +18867,7 @@
       <c r="D397" s="26"/>
       <c r="E397" s="14"/>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="14"/>
       <c r="B398" s="14"/>
       <c r="C398" s="14" t="s">
@@ -18810,14 +18876,14 @@
       <c r="D398" s="26"/>
       <c r="E398" s="14"/>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="13"/>
       <c r="B399" s="13"/>
       <c r="C399" s="13"/>
       <c r="D399" s="25"/>
       <c r="E399" s="13"/>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="14"/>
       <c r="B400" s="14"/>
       <c r="C400" s="14" t="s">
@@ -18826,7 +18892,7 @@
       <c r="D400" s="26"/>
       <c r="E400" s="14"/>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="14"/>
       <c r="B401" s="14"/>
       <c r="C401" s="14" t="s">
@@ -18835,7 +18901,7 @@
       <c r="D401" s="26"/>
       <c r="E401" s="14"/>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="14"/>
       <c r="B402" s="14"/>
       <c r="C402" s="14" t="s">
@@ -18844,7 +18910,7 @@
       <c r="D402" s="26"/>
       <c r="E402" s="14"/>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="14"/>
       <c r="B403" s="14"/>
       <c r="C403" s="14" t="s">
@@ -18853,7 +18919,7 @@
       <c r="D403" s="26"/>
       <c r="E403" s="14"/>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="14"/>
       <c r="B404" s="14"/>
       <c r="C404" s="14" t="s">
@@ -18862,7 +18928,7 @@
       <c r="D404" s="26"/>
       <c r="E404" s="14"/>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="14"/>
       <c r="B405" s="14"/>
       <c r="C405" s="14" t="s">
@@ -18871,7 +18937,7 @@
       <c r="D405" s="26"/>
       <c r="E405" s="14"/>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="14"/>
       <c r="B406" s="14"/>
       <c r="C406" s="14" t="s">
@@ -18880,7 +18946,7 @@
       <c r="D406" s="26"/>
       <c r="E406" s="14"/>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="14"/>
       <c r="B407" s="14"/>
       <c r="C407" s="14" t="s">
@@ -18889,7 +18955,7 @@
       <c r="D407" s="26"/>
       <c r="E407" s="14"/>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="14"/>
       <c r="B408" s="14"/>
       <c r="C408" s="14" t="s">
@@ -18898,7 +18964,7 @@
       <c r="D408" s="26"/>
       <c r="E408" s="14"/>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="14"/>
       <c r="B409" s="14"/>
       <c r="C409" s="14" t="s">
@@ -18907,7 +18973,7 @@
       <c r="D409" s="26"/>
       <c r="E409" s="14"/>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="14"/>
       <c r="B410" s="14"/>
       <c r="C410" s="14" t="s">
@@ -18916,14 +18982,14 @@
       <c r="D410" s="26"/>
       <c r="E410" s="14"/>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="13"/>
       <c r="B411" s="13"/>
       <c r="C411" s="13"/>
       <c r="D411" s="25"/>
       <c r="E411" s="13"/>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="14"/>
       <c r="B412" s="14"/>
       <c r="C412" s="14" t="s">
@@ -18932,7 +18998,7 @@
       <c r="D412" s="26"/>
       <c r="E412" s="14"/>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="14"/>
       <c r="B413" s="14"/>
       <c r="C413" s="14" t="s">
@@ -18941,7 +19007,7 @@
       <c r="D413" s="26"/>
       <c r="E413" s="14"/>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="14"/>
       <c r="B414" s="14"/>
       <c r="C414" s="14" t="s">
@@ -18950,14 +19016,14 @@
       <c r="D414" s="26"/>
       <c r="E414" s="14"/>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="13"/>
       <c r="B415" s="13"/>
       <c r="C415" s="13"/>
       <c r="D415" s="25"/>
       <c r="E415" s="13"/>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="14"/>
       <c r="B416" s="14"/>
       <c r="C416" s="14" t="s">
@@ -18966,7 +19032,7 @@
       <c r="D416" s="26"/>
       <c r="E416" s="14"/>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="14"/>
       <c r="B417" s="14"/>
       <c r="C417" s="14" t="s">
@@ -18975,7 +19041,7 @@
       <c r="D417" s="26"/>
       <c r="E417" s="14"/>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="14"/>
       <c r="B418" s="14"/>
       <c r="C418" s="14" t="s">
@@ -18984,14 +19050,14 @@
       <c r="D418" s="26"/>
       <c r="E418" s="14"/>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="13"/>
       <c r="B419" s="13"/>
       <c r="C419" s="13"/>
       <c r="D419" s="25"/>
       <c r="E419" s="13"/>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="14"/>
       <c r="B420" s="14"/>
       <c r="C420" s="14" t="s">
@@ -19000,7 +19066,7 @@
       <c r="D420" s="26"/>
       <c r="E420" s="14"/>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="14"/>
       <c r="B421" s="14"/>
       <c r="C421" s="14" t="s">
@@ -19009,7 +19075,7 @@
       <c r="D421" s="26"/>
       <c r="E421" s="14"/>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="14"/>
       <c r="B422" s="14"/>
       <c r="C422" s="14" t="s">
@@ -19018,14 +19084,14 @@
       <c r="D422" s="26"/>
       <c r="E422" s="14"/>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="13"/>
       <c r="B423" s="13"/>
       <c r="C423" s="13"/>
       <c r="D423" s="25"/>
       <c r="E423" s="13"/>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="14"/>
       <c r="B424" s="14"/>
       <c r="C424" s="14" t="s">
@@ -19034,7 +19100,7 @@
       <c r="D424" s="26"/>
       <c r="E424" s="14"/>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="14"/>
       <c r="B425" s="14"/>
       <c r="C425" s="14" t="s">
@@ -19043,7 +19109,7 @@
       <c r="D425" s="26"/>
       <c r="E425" s="14"/>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="14"/>
       <c r="B426" s="14"/>
       <c r="C426" s="14" t="s">
@@ -19052,14 +19118,14 @@
       <c r="D426" s="26"/>
       <c r="E426" s="14"/>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="13"/>
       <c r="B427" s="13"/>
       <c r="C427" s="13"/>
       <c r="D427" s="25"/>
       <c r="E427" s="13"/>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="14"/>
       <c r="B428" s="14"/>
       <c r="C428" s="14" t="s">
@@ -19068,7 +19134,7 @@
       <c r="D428" s="26"/>
       <c r="E428" s="14"/>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="14"/>
       <c r="B429" s="14"/>
       <c r="C429" s="14" t="s">
@@ -19077,7 +19143,7 @@
       <c r="D429" s="26"/>
       <c r="E429" s="14"/>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="14"/>
       <c r="B430" s="14"/>
       <c r="C430" s="14" t="s">
@@ -19086,14 +19152,14 @@
       <c r="D430" s="26"/>
       <c r="E430" s="14"/>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="13"/>
       <c r="B431" s="13"/>
       <c r="C431" s="13"/>
       <c r="D431" s="25"/>
       <c r="E431" s="13"/>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="14"/>
       <c r="B432" s="14"/>
       <c r="C432" s="14" t="s">
@@ -19102,7 +19168,7 @@
       <c r="D432" s="26"/>
       <c r="E432" s="14"/>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="14"/>
       <c r="B433" s="14"/>
       <c r="C433" s="14" t="s">
@@ -19111,7 +19177,7 @@
       <c r="D433" s="26"/>
       <c r="E433" s="14"/>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="14"/>
       <c r="B434" s="14"/>
       <c r="C434" s="14" t="s">
@@ -19120,14 +19186,14 @@
       <c r="D434" s="26"/>
       <c r="E434" s="14"/>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="13"/>
       <c r="B435" s="13"/>
       <c r="C435" s="13"/>
       <c r="D435" s="25"/>
       <c r="E435" s="13"/>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="15"/>
       <c r="B436" s="15"/>
       <c r="C436" s="15" t="s">
@@ -19136,7 +19202,7 @@
       <c r="D436" s="27"/>
       <c r="E436" s="15"/>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="12" t="s">
         <v>390</v>
       </c>
@@ -19153,14 +19219,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="13"/>
       <c r="B438" s="13"/>
       <c r="C438" s="13"/>
       <c r="D438" s="25"/>
       <c r="E438" s="13"/>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="14"/>
       <c r="B439" s="14"/>
       <c r="C439" s="14" t="s">
@@ -19169,7 +19235,7 @@
       <c r="D439" s="26"/>
       <c r="E439" s="14"/>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="14"/>
       <c r="B440" s="14"/>
       <c r="C440" s="14" t="s">
@@ -19178,7 +19244,7 @@
       <c r="D440" s="26"/>
       <c r="E440" s="14"/>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="14"/>
       <c r="B441" s="14"/>
       <c r="C441" s="14" t="s">
@@ -19187,14 +19253,14 @@
       <c r="D441" s="26"/>
       <c r="E441" s="14"/>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="13"/>
       <c r="B442" s="13"/>
       <c r="C442" s="13"/>
       <c r="D442" s="25"/>
       <c r="E442" s="13"/>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="14"/>
       <c r="B443" s="14"/>
       <c r="C443" s="14" t="s">
@@ -19203,7 +19269,7 @@
       <c r="D443" s="26"/>
       <c r="E443" s="14"/>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="14"/>
       <c r="B444" s="14"/>
       <c r="C444" s="14" t="s">
@@ -19212,7 +19278,7 @@
       <c r="D444" s="26"/>
       <c r="E444" s="14"/>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="14"/>
       <c r="B445" s="14"/>
       <c r="C445" s="14" t="s">
@@ -19221,14 +19287,14 @@
       <c r="D445" s="26"/>
       <c r="E445" s="14"/>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="13"/>
       <c r="B446" s="13"/>
       <c r="C446" s="13"/>
       <c r="D446" s="25"/>
       <c r="E446" s="13"/>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="15"/>
       <c r="B447" s="15"/>
       <c r="C447" s="15" t="s">
@@ -19237,7 +19303,7 @@
       <c r="D447" s="27"/>
       <c r="E447" s="15"/>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="12" t="s">
         <v>389</v>
       </c>
@@ -19254,14 +19320,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="13"/>
       <c r="B449" s="13"/>
       <c r="C449" s="13"/>
       <c r="D449" s="25"/>
       <c r="E449" s="13"/>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="14"/>
       <c r="B450" s="14"/>
       <c r="C450" s="14" t="s">
@@ -19270,7 +19336,7 @@
       <c r="D450" s="26"/>
       <c r="E450" s="14"/>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="14"/>
       <c r="B451" s="14"/>
       <c r="C451" s="14" t="s">
@@ -19279,7 +19345,7 @@
       <c r="D451" s="26"/>
       <c r="E451" s="14"/>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="14"/>
       <c r="B452" s="14"/>
       <c r="C452" s="14" t="s">
@@ -19288,7 +19354,7 @@
       <c r="D452" s="26"/>
       <c r="E452" s="14"/>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="14"/>
       <c r="B453" s="14"/>
       <c r="C453" s="14" t="s">
@@ -19297,7 +19363,7 @@
       <c r="D453" s="26"/>
       <c r="E453" s="14"/>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="14"/>
       <c r="B454" s="14"/>
       <c r="C454" s="14" t="s">
@@ -19306,7 +19372,7 @@
       <c r="D454" s="26"/>
       <c r="E454" s="14"/>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="14"/>
       <c r="B455" s="14"/>
       <c r="C455" s="14" t="s">
@@ -19315,7 +19381,7 @@
       <c r="D455" s="26"/>
       <c r="E455" s="14"/>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="14"/>
       <c r="B456" s="14"/>
       <c r="C456" s="14" t="s">
@@ -19324,7 +19390,7 @@
       <c r="D456" s="26"/>
       <c r="E456" s="14"/>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="14"/>
       <c r="B457" s="14"/>
       <c r="C457" s="14" t="s">
@@ -19333,7 +19399,7 @@
       <c r="D457" s="26"/>
       <c r="E457" s="14"/>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="14"/>
       <c r="B458" s="14"/>
       <c r="C458" s="14" t="s">
@@ -19342,14 +19408,14 @@
       <c r="D458" s="26"/>
       <c r="E458" s="14"/>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="13"/>
       <c r="B459" s="13"/>
       <c r="C459" s="13"/>
       <c r="D459" s="25"/>
       <c r="E459" s="13"/>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="14"/>
       <c r="B460" s="14"/>
       <c r="C460" s="14" t="s">
@@ -19358,7 +19424,7 @@
       <c r="D460" s="26"/>
       <c r="E460" s="14"/>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="14"/>
       <c r="B461" s="14"/>
       <c r="C461" s="14" t="s">
@@ -19367,7 +19433,7 @@
       <c r="D461" s="26"/>
       <c r="E461" s="14"/>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="14"/>
       <c r="B462" s="14"/>
       <c r="C462" s="14" t="s">
@@ -19376,7 +19442,7 @@
       <c r="D462" s="26"/>
       <c r="E462" s="14"/>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="14"/>
       <c r="B463" s="14"/>
       <c r="C463" s="14" t="s">
@@ -19385,14 +19451,14 @@
       <c r="D463" s="26"/>
       <c r="E463" s="14"/>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="13"/>
       <c r="B464" s="13"/>
       <c r="C464" s="13"/>
       <c r="D464" s="25"/>
       <c r="E464" s="13"/>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="14"/>
       <c r="B465" s="14"/>
       <c r="C465" s="14" t="s">
@@ -19401,7 +19467,7 @@
       <c r="D465" s="26"/>
       <c r="E465" s="14"/>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="14"/>
       <c r="B466" s="14"/>
       <c r="C466" s="14" t="s">
@@ -19410,7 +19476,7 @@
       <c r="D466" s="26"/>
       <c r="E466" s="14"/>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="14"/>
       <c r="B467" s="14"/>
       <c r="C467" s="14" t="s">
@@ -19419,14 +19485,14 @@
       <c r="D467" s="26"/>
       <c r="E467" s="14"/>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="13"/>
       <c r="B468" s="13"/>
       <c r="C468" s="13"/>
       <c r="D468" s="25"/>
       <c r="E468" s="13"/>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="14"/>
       <c r="B469" s="14"/>
       <c r="C469" s="14" t="s">
@@ -19435,7 +19501,7 @@
       <c r="D469" s="26"/>
       <c r="E469" s="14"/>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="14"/>
       <c r="B470" s="14"/>
       <c r="C470" s="14" t="s">
@@ -19444,7 +19510,7 @@
       <c r="D470" s="26"/>
       <c r="E470" s="14"/>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="14"/>
       <c r="B471" s="14"/>
       <c r="C471" s="14" t="s">
@@ -19453,7 +19519,7 @@
       <c r="D471" s="26"/>
       <c r="E471" s="14"/>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="14"/>
       <c r="B472" s="14"/>
       <c r="C472" s="14" t="s">
@@ -19462,14 +19528,14 @@
       <c r="D472" s="26"/>
       <c r="E472" s="14"/>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="13"/>
       <c r="B473" s="13"/>
       <c r="C473" s="13"/>
       <c r="D473" s="25"/>
       <c r="E473" s="13"/>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="14"/>
       <c r="B474" s="14"/>
       <c r="C474" s="14" t="s">
@@ -19478,7 +19544,7 @@
       <c r="D474" s="26"/>
       <c r="E474" s="14"/>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="14"/>
       <c r="B475" s="14"/>
       <c r="C475" s="14" t="s">
@@ -19487,7 +19553,7 @@
       <c r="D475" s="26"/>
       <c r="E475" s="14"/>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="14"/>
       <c r="B476" s="14"/>
       <c r="C476" s="14" t="s">
@@ -19496,14 +19562,14 @@
       <c r="D476" s="26"/>
       <c r="E476" s="14"/>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="13"/>
       <c r="B477" s="13"/>
       <c r="C477" s="13"/>
       <c r="D477" s="25"/>
       <c r="E477" s="13"/>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="14"/>
       <c r="B478" s="14"/>
       <c r="C478" s="14" t="s">
@@ -19512,7 +19578,7 @@
       <c r="D478" s="26"/>
       <c r="E478" s="14"/>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="14"/>
       <c r="B479" s="14"/>
       <c r="C479" s="14" t="s">
@@ -19521,7 +19587,7 @@
       <c r="D479" s="26"/>
       <c r="E479" s="14"/>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="14"/>
       <c r="B480" s="14"/>
       <c r="C480" s="14" t="s">
@@ -19530,14 +19596,14 @@
       <c r="D480" s="26"/>
       <c r="E480" s="14"/>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="13"/>
       <c r="B481" s="13"/>
       <c r="C481" s="13"/>
       <c r="D481" s="25"/>
       <c r="E481" s="13"/>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="14"/>
       <c r="B482" s="14"/>
       <c r="C482" s="14" t="s">
@@ -19546,7 +19612,7 @@
       <c r="D482" s="26"/>
       <c r="E482" s="14"/>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="14"/>
       <c r="B483" s="14"/>
       <c r="C483" s="14" t="s">
@@ -19555,7 +19621,7 @@
       <c r="D483" s="26"/>
       <c r="E483" s="14"/>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="14"/>
       <c r="B484" s="14"/>
       <c r="C484" s="14" t="s">
@@ -19564,14 +19630,14 @@
       <c r="D484" s="26"/>
       <c r="E484" s="14"/>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="13"/>
       <c r="B485" s="13"/>
       <c r="C485" s="13"/>
       <c r="D485" s="25"/>
       <c r="E485" s="13"/>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="14"/>
       <c r="B486" s="14"/>
       <c r="C486" s="14" t="s">
@@ -19580,7 +19646,7 @@
       <c r="D486" s="26"/>
       <c r="E486" s="14"/>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="14"/>
       <c r="B487" s="14"/>
       <c r="C487" s="14" t="s">
@@ -19589,7 +19655,7 @@
       <c r="D487" s="26"/>
       <c r="E487" s="14"/>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="14"/>
       <c r="B488" s="14"/>
       <c r="C488" s="14" t="s">
@@ -19598,7 +19664,7 @@
       <c r="D488" s="26"/>
       <c r="E488" s="14"/>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="14"/>
       <c r="B489" s="14"/>
       <c r="C489" s="14" t="s">
@@ -19607,14 +19673,14 @@
       <c r="D489" s="26"/>
       <c r="E489" s="14"/>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="13"/>
       <c r="B490" s="13"/>
       <c r="C490" s="13"/>
       <c r="D490" s="25"/>
       <c r="E490" s="13"/>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="15"/>
       <c r="B491" s="15"/>
       <c r="C491" s="15" t="s">
@@ -19623,14 +19689,378 @@
       <c r="D491" s="27"/>
       <c r="E491" s="15"/>
     </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B496" s="9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C496" s="9" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="497" spans="2:3" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B497" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C497" s="15" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="498" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B498" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C498" s="18" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="499" spans="2:3" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B499" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="C499" s="18" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="500" spans="2:3" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B500" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="C500" s="18" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="501" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B501" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C501" s="18" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="502" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B502" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C502" s="18" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="503" spans="2:3" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B503" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C503" s="18" t="s">
+        <v>1154</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E491">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E491"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="71.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="33" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C2" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
+      <c r="B3" s="31" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C3" s="31"/>
+    </row>
+    <row r="4" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="31" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C4" s="31"/>
+    </row>
+    <row r="5" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
+      <c r="B5" s="31" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C5" s="31"/>
+    </row>
+    <row r="6" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
+      <c r="B6" s="31" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C6" s="31"/>
+    </row>
+    <row r="7" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
+      <c r="B7" s="31" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C7" s="31"/>
+    </row>
+    <row r="8" spans="1:3" s="33" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
+      <c r="B8" s="31" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C8" s="31"/>
+    </row>
+    <row r="9" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
+      <c r="B9" s="31" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C9" s="31"/>
+    </row>
+    <row r="10" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
+      <c r="B10" s="31" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C10" s="31"/>
+    </row>
+    <row r="11" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="31" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C11" s="31"/>
+    </row>
+    <row r="12" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="32" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C12" s="32"/>
+    </row>
+    <row r="13" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C13" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="31" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="31" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C15" s="31"/>
+    </row>
+    <row r="16" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
+      <c r="B16" s="31" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C16" s="31"/>
+    </row>
+    <row r="17" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="31" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C17" s="31"/>
+    </row>
+    <row r="18" spans="1:3" s="33" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="31" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C18" s="31"/>
+    </row>
+    <row r="19" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="32" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C19" s="32"/>
+    </row>
+    <row r="20" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C20" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="36"/>
+      <c r="B21" s="31" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C21" s="31"/>
+    </row>
+    <row r="22" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="31" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C22" s="31"/>
+    </row>
+    <row r="23" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36"/>
+      <c r="B23" s="31" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C23" s="31"/>
+    </row>
+    <row r="24" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
+      <c r="B24" s="31" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C24" s="31"/>
+    </row>
+    <row r="25" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
+      <c r="B25" s="31" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C25" s="31"/>
+    </row>
+    <row r="26" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="36"/>
+      <c r="B26" s="31" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C26" s="31"/>
+    </row>
+    <row r="27" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="36"/>
+      <c r="B27" s="31" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C27" s="31"/>
+    </row>
+    <row r="28" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="36"/>
+      <c r="B28" s="31" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C28" s="31"/>
+    </row>
+    <row r="29" spans="1:3" s="33" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="36"/>
+      <c r="B29" s="31" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C29" s="31"/>
+    </row>
+    <row r="30" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="B30" s="32" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C30" s="32"/>
+    </row>
+    <row r="31" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C31" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
+      <c r="B32" s="31" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C32" s="31"/>
+    </row>
+    <row r="33" spans="1:3" s="33" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="36"/>
+      <c r="B33" s="31" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C33" s="31"/>
+    </row>
+    <row r="34" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="36"/>
+      <c r="B34" s="31" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C34" s="31"/>
+    </row>
+    <row r="35" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36"/>
+      <c r="B35" s="31" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C35" s="31"/>
+    </row>
+    <row r="36" spans="1:3" s="33" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="36"/>
+      <c r="B36" s="31" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C36" s="31"/>
+    </row>
+    <row r="37" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="37"/>
+      <c r="B37" s="32" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C37" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="A31:A37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>